--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D5C812-2545-42F2-8E44-DBBF2FFED9FF}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA595E0E-5AA7-4EB9-9498-5672F4A31E4E}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="489">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1857,9 +1857,6 @@
 </t>
   </si>
   <si>
-    <t>il dato richiesto non è gestito</t>
-  </si>
-  <si>
     <t>subject_application_id:O4C</t>
   </si>
   <si>
@@ -1867,6 +1864,9 @@
   </si>
   <si>
     <t>subject_application_version:6.6.0</t>
+  </si>
+  <si>
+    <t>socket timeout</t>
   </si>
 </sst>
 </file>
@@ -3956,10 +3956,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K182" sqref="K182"/>
+      <selection pane="bottomRight" activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D3" s="52"/>
       <c r="F3" s="6"/>
@@ -4063,7 +4063,7 @@
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="4"/>
@@ -4090,7 +4090,7 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D5" s="52"/>
       <c r="F5" s="6"/>
@@ -4457,7 +4457,9 @@
       <c r="J15" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="29" t="s">
+        <v>239</v>
+      </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -4755,7 +4757,9 @@
       <c r="J23" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="K23" s="29"/>
+      <c r="K23" s="29" t="s">
+        <v>239</v>
+      </c>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
@@ -5071,7 +5075,9 @@
       <c r="N31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="29" t="s">
+        <v>488</v>
+      </c>
       <c r="P31" s="29" t="s">
         <v>66</v>
       </c>
@@ -8524,9 +8530,7 @@
       <c r="K121" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L121" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L121" s="29"/>
       <c r="M121" s="29"/>
       <c r="N121" s="29"/>
       <c r="O121" s="29"/>
@@ -8567,9 +8571,7 @@
       <c r="K122" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L122" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L122" s="29"/>
       <c r="M122" s="29"/>
       <c r="N122" s="29"/>
       <c r="O122" s="29"/>
@@ -8862,9 +8864,7 @@
       <c r="K127" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L127" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L127" s="29"/>
       <c r="M127" s="29"/>
       <c r="N127" s="29"/>
       <c r="O127" s="29"/>
@@ -8905,9 +8905,7 @@
       <c r="K128" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L128" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L128" s="29"/>
       <c r="M128" s="29"/>
       <c r="N128" s="29"/>
       <c r="O128" s="29"/>
@@ -8948,9 +8946,7 @@
       <c r="K129" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L129" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L129" s="29"/>
       <c r="M129" s="29"/>
       <c r="N129" s="29"/>
       <c r="O129" s="29"/>
@@ -8991,9 +8987,7 @@
       <c r="K130" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L130" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L130" s="29"/>
       <c r="M130" s="29"/>
       <c r="N130" s="29"/>
       <c r="O130" s="29"/>
@@ -10575,9 +10569,7 @@
       <c r="K171" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L171" s="29" t="s">
-        <v>485</v>
-      </c>
+      <c r="L171" s="29"/>
       <c r="M171" s="29"/>
       <c r="N171" s="29"/>
       <c r="O171" s="29"/>
@@ -10990,9 +10982,7 @@
       <c r="K182" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="L182" s="31" t="s">
-        <v>485</v>
-      </c>
+      <c r="L182" s="31"/>
       <c r="M182" s="31"/>
       <c r="N182" s="31"/>
       <c r="O182" s="31"/>
@@ -17773,27 +17763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18051,32 +18020,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18093,4 +18058,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA595E0E-5AA7-4EB9-9498-5672F4A31E4E}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED5DB3C-6D87-48B5-9198-EC11FFF1147C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="490">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1703,15 +1703,6 @@
     <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
   </si>
   <si>
-    <t>d45f5c186a61d069</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.6a728a0a0b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-31T14:57:35</t>
-  </si>
-  <si>
     <t>Non applicabile</t>
   </si>
   <si>
@@ -1867,6 +1858,18 @@
   </si>
   <si>
     <t>socket timeout</t>
+  </si>
+  <si>
+    <t>31/0/2025</t>
+  </si>
+  <si>
+    <t>317372788d8f5f207a5228b7905fe47a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.214145c973^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-18T10:43:40</t>
   </si>
 </sst>
 </file>
@@ -3956,10 +3959,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M171" sqref="M171"/>
+      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4037,7 +4040,7 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="60" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D3" s="52"/>
       <c r="F3" s="6"/>
@@ -4063,7 +4066,7 @@
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="60" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="4"/>
@@ -4090,7 +4093,7 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D5" s="52"/>
       <c r="F5" s="6"/>
@@ -5067,7 +5070,7 @@
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>66</v>
@@ -5076,7 +5079,7 @@
         <v>66</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P31" s="29" t="s">
         <v>66</v>
@@ -5088,7 +5091,7 @@
         <v>234</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="T31" s="29" t="s">
         <v>232</v>
@@ -8272,13 +8275,13 @@
         <v>45750</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H117" s="33" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I117" s="33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J117" s="29" t="s">
         <v>66</v>
@@ -8292,7 +8295,7 @@
         <v>234</v>
       </c>
       <c r="O117" s="29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P117" s="29" t="s">
         <v>66</v>
@@ -8304,7 +8307,7 @@
         <v>66</v>
       </c>
       <c r="S117" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T117" s="29" t="s">
         <v>232</v>
@@ -8335,13 +8338,13 @@
         <v>45750</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I118" s="39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J118" s="29" t="s">
         <v>66</v>
@@ -8355,7 +8358,7 @@
         <v>234</v>
       </c>
       <c r="O118" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P118" s="29" t="s">
         <v>66</v>
@@ -8367,7 +8370,7 @@
         <v>66</v>
       </c>
       <c r="S118" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T118" s="29" t="s">
         <v>232</v>
@@ -8398,13 +8401,13 @@
         <v>45750</v>
       </c>
       <c r="G119" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J119" s="29" t="s">
         <v>66</v>
@@ -8418,7 +8421,7 @@
         <v>234</v>
       </c>
       <c r="O119" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P119" s="29" t="s">
         <v>66</v>
@@ -8430,7 +8433,7 @@
         <v>66</v>
       </c>
       <c r="S119" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T119" s="29" t="s">
         <v>232</v>
@@ -8461,13 +8464,13 @@
         <v>45750</v>
       </c>
       <c r="G120" s="39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H120" s="33" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I120" s="39" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J120" s="29" t="s">
         <v>66</v>
@@ -8481,7 +8484,7 @@
         <v>234</v>
       </c>
       <c r="O120" s="29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P120" s="29" t="s">
         <v>66</v>
@@ -8493,7 +8496,7 @@
         <v>66</v>
       </c>
       <c r="S120" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T120" s="29" t="s">
         <v>232</v>
@@ -8606,13 +8609,13 @@
         <v>45750</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I123" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J123" s="29" t="s">
         <v>66</v>
@@ -8626,7 +8629,7 @@
         <v>234</v>
       </c>
       <c r="O123" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P123" s="29" t="s">
         <v>66</v>
@@ -8638,7 +8641,7 @@
         <v>66</v>
       </c>
       <c r="S123" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T123" s="29" t="s">
         <v>232</v>
@@ -8669,13 +8672,13 @@
         <v>45750</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I124" s="39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J124" s="29" t="s">
         <v>66</v>
@@ -8689,7 +8692,7 @@
         <v>234</v>
       </c>
       <c r="O124" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P124" s="29" t="s">
         <v>66</v>
@@ -8701,7 +8704,7 @@
         <v>66</v>
       </c>
       <c r="S124" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T124" s="29" t="s">
         <v>232</v>
@@ -8732,13 +8735,13 @@
         <v>45750</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I125" s="39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J125" s="29" t="s">
         <v>66</v>
@@ -8752,7 +8755,7 @@
         <v>234</v>
       </c>
       <c r="O125" s="29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P125" s="29" t="s">
         <v>66</v>
@@ -8764,7 +8767,7 @@
         <v>66</v>
       </c>
       <c r="S125" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T125" s="29" t="s">
         <v>232</v>
@@ -8795,13 +8798,13 @@
         <v>45750</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H126" s="33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I126" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J126" s="29" t="s">
         <v>66</v>
@@ -8815,7 +8818,7 @@
         <v>234</v>
       </c>
       <c r="O126" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P126" s="29" t="s">
         <v>66</v>
@@ -8827,7 +8830,7 @@
         <v>66</v>
       </c>
       <c r="S126" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T126" s="29" t="s">
         <v>232</v>
@@ -9022,13 +9025,13 @@
         <v>45751</v>
       </c>
       <c r="G131" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I131" s="39" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J131" s="29" t="s">
         <v>66</v>
@@ -9042,7 +9045,7 @@
         <v>234</v>
       </c>
       <c r="O131" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P131" s="29" t="s">
         <v>66</v>
@@ -9054,7 +9057,7 @@
         <v>66</v>
       </c>
       <c r="S131" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T131" s="29" t="s">
         <v>232</v>
@@ -9085,13 +9088,13 @@
         <v>45751</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I132" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J132" s="29" t="s">
         <v>66</v>
@@ -9105,7 +9108,7 @@
         <v>234</v>
       </c>
       <c r="O132" s="29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P132" s="29" t="s">
         <v>66</v>
@@ -9117,7 +9120,7 @@
         <v>66</v>
       </c>
       <c r="S132" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T132" s="29" t="s">
         <v>232</v>
@@ -10513,17 +10516,17 @@
       <c r="E170" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="F170" s="33">
-        <v>45747</v>
+      <c r="F170" s="33" t="s">
+        <v>486</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -10580,7 +10583,7 @@
       <c r="T171" s="29"/>
       <c r="U171" s="34"/>
       <c r="V171" s="35" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="W171" s="29" t="s">
         <v>36</v>
@@ -11239,13 +11242,13 @@
         <v>45751</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H189" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I189" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J189" s="29" t="s">
         <v>66</v>
@@ -11259,7 +11262,7 @@
         <v>234</v>
       </c>
       <c r="O189" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P189" s="29" t="s">
         <v>66</v>
@@ -11271,7 +11274,7 @@
         <v>66</v>
       </c>
       <c r="S189" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T189" s="29" t="s">
         <v>232</v>
@@ -17763,6 +17766,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18020,28 +18044,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18058,29 +18086,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED5DB3C-6D87-48B5-9198-EC11FFF1147C}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10360502-90FB-4F33-BE3B-20221298D19C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$191</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1863,13 +1864,13 @@
     <t>31/0/2025</t>
   </si>
   <si>
-    <t>317372788d8f5f207a5228b7905fe47a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.214145c973^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-18T10:43:40</t>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.4b5020203e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-09T08:21:21</t>
+  </si>
+  <si>
+    <t>180e7fee949cf7edd21065d4931fc253</t>
   </si>
 </sst>
 </file>
@@ -3959,10 +3960,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10520,13 +10521,13 @@
         <v>486</v>
       </c>
       <c r="G170" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="H170" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="H170" s="33" t="s">
+      <c r="I170" s="33" t="s">
         <v>487</v>
-      </c>
-      <c r="I170" s="33" t="s">
-        <v>488</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -17766,27 +17767,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18044,32 +18024,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18086,4 +18062,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10360502-90FB-4F33-BE3B-20221298D19C}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2016F60-439C-4168-ABF3-4143521CB3EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$191</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="489">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1861,16 +1860,13 @@
     <t>socket timeout</t>
   </si>
   <si>
-    <t>31/0/2025</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.4b5020203e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-09T08:21:21</t>
-  </si>
-  <si>
-    <t>180e7fee949cf7edd21065d4931fc253</t>
+    <t>2025-05-14T07:50:14</t>
+  </si>
+  <si>
+    <t>952b8c4c7799746ed41290258ff9fd6c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.e585cd7e3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +3956,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
+      <selection pane="bottomRight" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10517,17 +10513,17 @@
       <c r="E170" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="F170" s="33" t="s">
+      <c r="F170" s="33">
+        <v>45791</v>
+      </c>
+      <c r="G170" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="G170" s="33" t="s">
+      <c r="H170" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I170" s="33" t="s">
         <v>488</v>
-      </c>
-      <c r="H170" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="I170" s="33" t="s">
-        <v>487</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -17767,6 +17763,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18024,28 +18041,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18062,29 +18083,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2016F60-439C-4168-ABF3-4143521CB3EE}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B3A700-8B97-4E60-8D54-1A68E098537E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,13 +1860,13 @@
     <t>socket timeout</t>
   </si>
   <si>
-    <t>2025-05-14T07:50:14</t>
-  </si>
-  <si>
-    <t>952b8c4c7799746ed41290258ff9fd6c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.e585cd7e3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>9a4550af60b0076120048750a7338dc2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.02edc15569^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-19T09:51:38</t>
   </si>
 </sst>
 </file>
@@ -3959,7 +3959,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H170" sqref="H170"/>
+      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10514,16 +10514,16 @@
         <v>399</v>
       </c>
       <c r="F170" s="33">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="G170" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="H170" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="H170" s="33" t="s">
+      <c r="I170" s="33" t="s">
         <v>487</v>
-      </c>
-      <c r="I170" s="33" t="s">
-        <v>488</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -17763,27 +17763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18041,32 +18020,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18083,4 +18058,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/O4C/6.6.0/accreditamento-checklist_V6.6.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/marco_difalco_dedalus_eu/Documents/Desktop/accreditamento/accreditamento-fse/esempi/O4C/6.6.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B3A700-8B97-4E60-8D54-1A68E098537E}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{75FC5719-B4C9-497D-AB4F-9083CDB6E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96CC7C8-D2B4-4197-ACFC-886A1399C391}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,13 +1860,13 @@
     <t>socket timeout</t>
   </si>
   <si>
-    <t>9a4550af60b0076120048750a7338dc2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.02edc15569^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-19T09:51:38</t>
+    <t>2025-06-03T14:16:32</t>
+  </si>
+  <si>
+    <t>62939bfe8e9a52c677a91e9182923e2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10212.4.4.1.d22db0e570a9c27132303b8c0fc13ac5acb7547931495c4d26c557ec2112d3fd.e5d260e33b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3959,7 +3959,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10514,16 +10514,16 @@
         <v>399</v>
       </c>
       <c r="F170" s="33">
-        <v>45796</v>
+        <v>45811</v>
       </c>
       <c r="G170" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H170" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I170" s="33" t="s">
         <v>488</v>
-      </c>
-      <c r="H170" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="I170" s="33" t="s">
-        <v>487</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -17763,6 +17763,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18020,28 +18041,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18058,29 +18083,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>